--- a/data/broad_assets_lstm_test_data.xlsx
+++ b/data/broad_assets_lstm_test_data.xlsx
@@ -565,13 +565,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>1</v>
@@ -603,7 +603,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -629,7 +629,7 @@
         <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -641,7 +641,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" t="n">
         <v>1</v>
@@ -661,10 +661,10 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -685,10 +685,10 @@
         <v>1</v>
       </c>
       <c r="K6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -699,10 +699,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -734,13 +734,13 @@
         <v>44018</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -772,16 +772,16 @@
         <v>44025</v>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" t="n">
         <v>1</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -793,10 +793,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -810,37 +810,37 @@
         <v>44032</v>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" t="n">
         <v>1</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -848,16 +848,16 @@
         <v>44039</v>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" t="n">
         <v>1</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11" t="n">
         <v>1</v>
@@ -866,19 +866,19 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -886,16 +886,16 @@
         <v>44046</v>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12" t="n">
         <v>1</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12" t="n">
         <v>1</v>
@@ -904,10 +904,10 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>1</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -930,10 +930,10 @@
         <v>1</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13" t="n">
         <v>1</v>
@@ -942,7 +942,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>1</v>
@@ -954,7 +954,7 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -974,25 +974,25 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1018,19 +1018,19 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1065,10 +1065,10 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1079,13 +1079,13 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17" t="n">
         <v>1</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -1117,13 +1117,13 @@
         <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" t="n">
         <v>1</v>
@@ -1141,7 +1141,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -1155,13 +1155,13 @@
         <v>1</v>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>1</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19" t="n">
         <v>1</v>
@@ -1179,7 +1179,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -1193,7 +1193,7 @@
         <v>1</v>
       </c>
       <c r="C20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>1</v>
@@ -1202,7 +1202,7 @@
         <v>1</v>
       </c>
       <c r="F20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -1231,16 +1231,16 @@
         <v>1</v>
       </c>
       <c r="C21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>1</v>
       </c>
       <c r="E21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -1269,13 +1269,13 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -1304,7 +1304,7 @@
         <v>44123</v>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -1328,7 +1328,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -1348,7 +1348,7 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24" t="n">
         <v>1</v>
@@ -1366,7 +1366,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -1383,10 +1383,10 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25" t="n">
         <v>1</v>
@@ -1401,10 +1401,10 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -1421,7 +1421,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D26" t="n">
         <v>1</v>
@@ -1430,7 +1430,7 @@
         <v>1</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -1439,13 +1439,13 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -1459,7 +1459,7 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D27" t="n">
         <v>1</v>
@@ -1477,13 +1477,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -1497,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -1509,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1518,7 +1518,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -1532,10 +1532,10 @@
         <v>44165</v>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D29" t="n">
         <v>1</v>
@@ -1547,19 +1547,19 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -1594,13 +1594,13 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>1</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
@@ -1617,7 +1617,7 @@
         <v>1</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -1626,19 +1626,19 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>1</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -1649,13 +1649,13 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D32" t="n">
         <v>1</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -1664,10 +1664,10 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>1</v>
@@ -1693,7 +1693,7 @@
         <v>1</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -1702,7 +1702,7 @@
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -1725,7 +1725,7 @@
         <v>1</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D34" t="n">
         <v>1</v>
@@ -1740,7 +1740,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -1752,7 +1752,7 @@
         <v>1</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
@@ -1763,7 +1763,7 @@
         <v>1</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D35" t="n">
         <v>1</v>
@@ -1778,19 +1778,19 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -1801,7 +1801,7 @@
         <v>1</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D36" t="n">
         <v>1</v>
@@ -1816,19 +1816,19 @@
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
@@ -1854,16 +1854,16 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L37" t="n">
         <v>1</v>
@@ -1874,7 +1874,7 @@
         <v>44228</v>
       </c>
       <c r="B38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -1901,7 +1901,7 @@
         <v>1</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L38" t="n">
         <v>1</v>
@@ -1912,7 +1912,7 @@
         <v>44235</v>
       </c>
       <c r="B39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
         <v>1</v>
@@ -1939,7 +1939,7 @@
         <v>1</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L39" t="n">
         <v>1</v>
@@ -1974,7 +1974,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -1991,7 +1991,7 @@
         <v>1</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D41" t="n">
         <v>1</v>
@@ -2026,10 +2026,10 @@
         <v>44256</v>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D42" t="n">
         <v>1</v>
@@ -2064,10 +2064,10 @@
         <v>44263</v>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D43" t="n">
         <v>1</v>
@@ -2094,7 +2094,7 @@
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
@@ -2102,10 +2102,10 @@
         <v>44270</v>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D44" t="n">
         <v>1</v>
@@ -2117,22 +2117,22 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
@@ -2143,7 +2143,7 @@
         <v>1</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -2164,13 +2164,13 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
@@ -2181,34 +2181,34 @@
         <v>1</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E46" t="n">
         <v>1</v>
       </c>
       <c r="F46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>1</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -2237,16 +2237,16 @@
         <v>1</v>
       </c>
       <c r="I47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -2272,19 +2272,19 @@
         <v>1</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K48" t="n">
         <v>0</v>
       </c>
       <c r="L48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
@@ -2316,13 +2316,13 @@
         <v>0</v>
       </c>
       <c r="J49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K49" t="n">
         <v>0</v>
       </c>
       <c r="L49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -2348,19 +2348,19 @@
         <v>1</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J50" t="n">
         <v>1</v>
       </c>
       <c r="K50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51">
@@ -2371,7 +2371,7 @@
         <v>0</v>
       </c>
       <c r="C51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D51" t="n">
         <v>1</v>
@@ -2386,7 +2386,7 @@
         <v>1</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
@@ -2398,7 +2398,7 @@
         <v>1</v>
       </c>
       <c r="L51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -2424,7 +2424,7 @@
         <v>1</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
@@ -2462,7 +2462,7 @@
         <v>0</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
@@ -2512,7 +2512,7 @@
         <v>1</v>
       </c>
       <c r="L54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -2541,7 +2541,7 @@
         <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J55" t="n">
         <v>1</v>
@@ -2558,7 +2558,7 @@
         <v>44354</v>
       </c>
       <c r="B56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C56" t="n">
         <v>0</v>
@@ -2573,7 +2573,7 @@
         <v>0</v>
       </c>
       <c r="G56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2588,7 +2588,7 @@
         <v>1</v>
       </c>
       <c r="L56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
@@ -2596,25 +2596,25 @@
         <v>44361</v>
       </c>
       <c r="B57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C57" t="n">
         <v>0</v>
       </c>
       <c r="D57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E57" t="n">
         <v>1</v>
       </c>
       <c r="F57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I57" t="n">
         <v>1</v>
@@ -2623,10 +2623,10 @@
         <v>1</v>
       </c>
       <c r="K57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58">
@@ -2634,10 +2634,10 @@
         <v>44368</v>
       </c>
       <c r="B58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D58" t="n">
         <v>0</v>
@@ -2646,13 +2646,13 @@
         <v>1</v>
       </c>
       <c r="F58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I58" t="n">
         <v>1</v>
@@ -2661,7 +2661,7 @@
         <v>1</v>
       </c>
       <c r="K58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L58" t="n">
         <v>1</v>
@@ -2672,10 +2672,10 @@
         <v>44375</v>
       </c>
       <c r="B59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D59" t="n">
         <v>1</v>
@@ -2687,16 +2687,16 @@
         <v>1</v>
       </c>
       <c r="G59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H59" t="n">
         <v>1</v>
       </c>
       <c r="I59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K59" t="n">
         <v>1</v>
@@ -2710,10 +2710,10 @@
         <v>44379</v>
       </c>
       <c r="B60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D60" t="n">
         <v>1</v>
@@ -2731,10 +2731,10 @@
         <v>1</v>
       </c>
       <c r="I60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K60" t="n">
         <v>1</v>
@@ -2748,10 +2748,10 @@
         <v>44389</v>
       </c>
       <c r="B61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D61" t="n">
         <v>1</v>
@@ -2772,10 +2772,10 @@
         <v>1</v>
       </c>
       <c r="J61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L61" t="n">
         <v>1</v>
@@ -2804,7 +2804,7 @@
         <v>1</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
         <v>1</v>
@@ -2813,7 +2813,7 @@
         <v>0</v>
       </c>
       <c r="K62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L62" t="n">
         <v>1</v>
@@ -2830,7 +2830,7 @@
         <v>1</v>
       </c>
       <c r="D63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E63" t="n">
         <v>1</v>
@@ -2848,13 +2848,13 @@
         <v>1</v>
       </c>
       <c r="J63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K63" t="n">
         <v>0</v>
       </c>
       <c r="L63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -2868,7 +2868,7 @@
         <v>1</v>
       </c>
       <c r="D64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E64" t="n">
         <v>1</v>
@@ -2883,16 +2883,16 @@
         <v>1</v>
       </c>
       <c r="I64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -2906,7 +2906,7 @@
         <v>1</v>
       </c>
       <c r="D65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E65" t="n">
         <v>1</v>
@@ -2921,10 +2921,10 @@
         <v>1</v>
       </c>
       <c r="I65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K65" t="n">
         <v>0</v>
@@ -2944,7 +2944,7 @@
         <v>1</v>
       </c>
       <c r="D66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E66" t="n">
         <v>1</v>
@@ -2962,7 +2962,7 @@
         <v>0</v>
       </c>
       <c r="J66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K66" t="n">
         <v>1</v>
@@ -2976,7 +2976,7 @@
         <v>44431</v>
       </c>
       <c r="B67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C67" t="n">
         <v>1</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="J67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K67" t="n">
         <v>1</v>
@@ -3017,7 +3017,7 @@
         <v>0</v>
       </c>
       <c r="C68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D68" t="n">
         <v>1</v>
@@ -3029,7 +3029,7 @@
         <v>0</v>
       </c>
       <c r="G68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -3038,7 +3038,7 @@
         <v>0</v>
       </c>
       <c r="J68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K68" t="n">
         <v>1</v>
@@ -3055,7 +3055,7 @@
         <v>0</v>
       </c>
       <c r="C69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D69" t="n">
         <v>1</v>
@@ -3076,13 +3076,13 @@
         <v>0</v>
       </c>
       <c r="J69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K69" t="n">
         <v>0</v>
       </c>
       <c r="L69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
@@ -3120,7 +3120,7 @@
         <v>0</v>
       </c>
       <c r="L70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71">
@@ -3155,7 +3155,7 @@
         <v>1</v>
       </c>
       <c r="K71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L71" t="n">
         <v>1</v>
@@ -3178,10 +3178,10 @@
         <v>1</v>
       </c>
       <c r="F72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3190,7 +3190,7 @@
         <v>0</v>
       </c>
       <c r="J72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K72" t="n">
         <v>1</v>
@@ -3204,7 +3204,7 @@
         <v>44473</v>
       </c>
       <c r="B73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C73" t="n">
         <v>0</v>
@@ -3216,19 +3216,19 @@
         <v>1</v>
       </c>
       <c r="F73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
       </c>
       <c r="I73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K73" t="n">
         <v>1</v>
@@ -3257,22 +3257,22 @@
         <v>1</v>
       </c>
       <c r="G74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
       </c>
       <c r="I74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K74" t="n">
         <v>0</v>
       </c>
       <c r="L74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -3283,10 +3283,10 @@
         <v>1</v>
       </c>
       <c r="C75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E75" t="n">
         <v>1</v>
@@ -3295,16 +3295,16 @@
         <v>1</v>
       </c>
       <c r="G75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
       </c>
       <c r="I75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K75" t="n">
         <v>0</v>
@@ -3321,10 +3321,10 @@
         <v>1</v>
       </c>
       <c r="C76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E76" t="n">
         <v>1</v>
@@ -3339,7 +3339,7 @@
         <v>0</v>
       </c>
       <c r="I76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J76" t="n">
         <v>1</v>
@@ -3362,7 +3362,7 @@
         <v>1</v>
       </c>
       <c r="D77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E77" t="n">
         <v>1</v>
@@ -3412,7 +3412,7 @@
         <v>1</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I78" t="n">
         <v>1</v>
@@ -3450,10 +3450,10 @@
         <v>1</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J79" t="n">
         <v>1</v>
@@ -3488,19 +3488,19 @@
         <v>1</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K80" t="n">
         <v>0</v>
       </c>
       <c r="L80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
@@ -3514,31 +3514,31 @@
         <v>1</v>
       </c>
       <c r="D81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E81" t="n">
         <v>1</v>
       </c>
       <c r="F81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
       <c r="J81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K81" t="n">
         <v>0</v>
       </c>
       <c r="L81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -3552,7 +3552,7 @@
         <v>1</v>
       </c>
       <c r="D82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E82" t="n">
         <v>1</v>
@@ -3564,7 +3564,7 @@
         <v>1</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
@@ -3584,13 +3584,13 @@
         <v>44543</v>
       </c>
       <c r="B83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C83" t="n">
         <v>1</v>
       </c>
       <c r="D83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E83" t="n">
         <v>1</v>
@@ -3599,7 +3599,7 @@
         <v>1</v>
       </c>
       <c r="G83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3622,7 +3622,7 @@
         <v>44550</v>
       </c>
       <c r="B84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C84" t="n">
         <v>1</v>
@@ -3640,7 +3640,7 @@
         <v>1</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
         <v>1</v>
@@ -3675,7 +3675,7 @@
         <v>1</v>
       </c>
       <c r="G85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H85" t="n">
         <v>1</v>
@@ -3687,10 +3687,10 @@
         <v>1</v>
       </c>
       <c r="K85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86">
@@ -3713,10 +3713,10 @@
         <v>1</v>
       </c>
       <c r="G86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I86" t="n">
         <v>1</v>
@@ -3728,7 +3728,7 @@
         <v>0</v>
       </c>
       <c r="L86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87">
@@ -3739,7 +3739,7 @@
         <v>1</v>
       </c>
       <c r="C87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D87" t="n">
         <v>1</v>
@@ -3748,13 +3748,13 @@
         <v>1</v>
       </c>
       <c r="F87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I87" t="n">
         <v>1</v>
@@ -3774,10 +3774,10 @@
         <v>44575</v>
       </c>
       <c r="B88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D88" t="n">
         <v>1</v>
@@ -3789,16 +3789,16 @@
         <v>1</v>
       </c>
       <c r="G88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I88" t="n">
         <v>1</v>
       </c>
       <c r="J88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K88" t="n">
         <v>0</v>
@@ -3812,10 +3812,10 @@
         <v>44585</v>
       </c>
       <c r="B89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D89" t="n">
         <v>1</v>
@@ -3830,13 +3830,13 @@
         <v>1</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
         <v>1</v>
       </c>
       <c r="J89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K89" t="n">
         <v>0</v>
@@ -3850,16 +3850,16 @@
         <v>44592</v>
       </c>
       <c r="B90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C90" t="n">
         <v>1</v>
       </c>
       <c r="D90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F90" t="n">
         <v>1</v>
@@ -3868,13 +3868,13 @@
         <v>1</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I90" t="n">
         <v>1</v>
       </c>
       <c r="J90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K90" t="n">
         <v>0</v>
@@ -3894,7 +3894,7 @@
         <v>1</v>
       </c>
       <c r="D91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E91" t="n">
         <v>1</v>
@@ -3906,7 +3906,7 @@
         <v>1</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I91" t="n">
         <v>1</v>
@@ -3932,7 +3932,7 @@
         <v>1</v>
       </c>
       <c r="D92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E92" t="n">
         <v>1</v>
@@ -3944,7 +3944,7 @@
         <v>1</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I92" t="n">
         <v>1</v>
@@ -3953,10 +3953,10 @@
         <v>0</v>
       </c>
       <c r="K92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93">
@@ -3982,7 +3982,7 @@
         <v>1</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I93" t="n">
         <v>1</v>
@@ -3991,10 +3991,10 @@
         <v>0</v>
       </c>
       <c r="K93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -4014,22 +4014,22 @@
         <v>1</v>
       </c>
       <c r="F94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J94" t="n">
         <v>0</v>
       </c>
       <c r="K94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L94" t="n">
         <v>0</v>
@@ -4052,13 +4052,13 @@
         <v>1</v>
       </c>
       <c r="F95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
@@ -4070,7 +4070,7 @@
         <v>0</v>
       </c>
       <c r="L95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -4081,7 +4081,7 @@
         <v>0</v>
       </c>
       <c r="C96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D96" t="n">
         <v>1</v>
@@ -4090,13 +4090,13 @@
         <v>1</v>
       </c>
       <c r="F96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
@@ -4116,10 +4116,10 @@
         <v>44641</v>
       </c>
       <c r="B97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D97" t="n">
         <v>1</v>
@@ -4134,19 +4134,19 @@
         <v>1</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
       <c r="J97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K97" t="n">
         <v>0</v>
       </c>
       <c r="L97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -4154,10 +4154,10 @@
         <v>44648</v>
       </c>
       <c r="B98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D98" t="n">
         <v>1</v>
@@ -4172,13 +4172,13 @@
         <v>1</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
       <c r="J98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K98" t="n">
         <v>0</v>
@@ -4192,13 +4192,13 @@
         <v>44655</v>
       </c>
       <c r="B99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C99" t="n">
         <v>0</v>
       </c>
       <c r="D99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E99" t="n">
         <v>1</v>
@@ -4213,7 +4213,7 @@
         <v>1</v>
       </c>
       <c r="I99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J99" t="n">
         <v>1</v>
@@ -4233,7 +4233,7 @@
         <v>1</v>
       </c>
       <c r="C100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D100" t="n">
         <v>1</v>
@@ -4242,16 +4242,16 @@
         <v>1</v>
       </c>
       <c r="F100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H100" t="n">
         <v>1</v>
       </c>
       <c r="I100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J100" t="n">
         <v>1</v>
@@ -4271,7 +4271,7 @@
         <v>1</v>
       </c>
       <c r="C101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D101" t="n">
         <v>1</v>
@@ -4283,13 +4283,13 @@
         <v>1</v>
       </c>
       <c r="G101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H101" t="n">
         <v>1</v>
       </c>
       <c r="I101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J101" t="n">
         <v>1</v>
@@ -4298,7 +4298,7 @@
         <v>0</v>
       </c>
       <c r="L101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102">
@@ -4306,10 +4306,10 @@
         <v>44676</v>
       </c>
       <c r="B102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D102" t="n">
         <v>1</v>
@@ -4321,10 +4321,10 @@
         <v>1</v>
       </c>
       <c r="G102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
@@ -4336,7 +4336,7 @@
         <v>0</v>
       </c>
       <c r="L102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103">
@@ -4344,10 +4344,10 @@
         <v>44683</v>
       </c>
       <c r="B103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D103" t="n">
         <v>1</v>
@@ -4359,13 +4359,13 @@
         <v>1</v>
       </c>
       <c r="G103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J103" t="n">
         <v>1</v>
@@ -4385,10 +4385,10 @@
         <v>1</v>
       </c>
       <c r="C104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E104" t="n">
         <v>1</v>
@@ -4397,13 +4397,13 @@
         <v>1</v>
       </c>
       <c r="G104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J104" t="n">
         <v>1</v>
@@ -4423,10 +4423,10 @@
         <v>1</v>
       </c>
       <c r="C105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E105" t="n">
         <v>1</v>
@@ -4435,10 +4435,10 @@
         <v>1</v>
       </c>
       <c r="G105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I105" t="n">
         <v>1</v>
@@ -4458,13 +4458,13 @@
         <v>44704</v>
       </c>
       <c r="B106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C106" t="n">
         <v>0</v>
       </c>
       <c r="D106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E106" t="n">
         <v>1</v>
@@ -4473,10 +4473,10 @@
         <v>1</v>
       </c>
       <c r="G106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I106" t="n">
         <v>1</v>
@@ -4485,7 +4485,7 @@
         <v>1</v>
       </c>
       <c r="K106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L106" t="n">
         <v>1</v>
@@ -4496,7 +4496,7 @@
         <v>44708</v>
       </c>
       <c r="B107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C107" t="n">
         <v>0</v>
@@ -4511,7 +4511,7 @@
         <v>1</v>
       </c>
       <c r="G107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4523,7 +4523,7 @@
         <v>1</v>
       </c>
       <c r="K107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L107" t="n">
         <v>0</v>
@@ -4534,16 +4534,16 @@
         <v>44718</v>
       </c>
       <c r="B108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D108" t="n">
         <v>1</v>
       </c>
       <c r="E108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F108" t="n">
         <v>1</v>
@@ -4552,13 +4552,13 @@
         <v>1</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I108" t="n">
         <v>1</v>
       </c>
       <c r="J108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K108" t="n">
         <v>0</v>
@@ -4572,10 +4572,10 @@
         <v>44725</v>
       </c>
       <c r="B109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D109" t="n">
         <v>1</v>
@@ -4584,13 +4584,13 @@
         <v>1</v>
       </c>
       <c r="F109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I109" t="n">
         <v>1</v>
@@ -4599,7 +4599,7 @@
         <v>0</v>
       </c>
       <c r="K109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L109" t="n">
         <v>0</v>
@@ -4610,10 +4610,10 @@
         <v>44732</v>
       </c>
       <c r="B110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D110" t="n">
         <v>1</v>
@@ -4622,25 +4622,25 @@
         <v>1</v>
       </c>
       <c r="F110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J110" t="n">
         <v>0</v>
       </c>
       <c r="K110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111">
@@ -4648,10 +4648,10 @@
         <v>44739</v>
       </c>
       <c r="B111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D111" t="n">
         <v>1</v>
@@ -4660,16 +4660,16 @@
         <v>1</v>
       </c>
       <c r="F111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H111" t="n">
         <v>1</v>
       </c>
       <c r="I111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J111" t="n">
         <v>0</v>
@@ -4678,7 +4678,7 @@
         <v>1</v>
       </c>
       <c r="L111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112">
@@ -4686,10 +4686,10 @@
         <v>44743</v>
       </c>
       <c r="B112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D112" t="n">
         <v>1</v>
@@ -4698,16 +4698,16 @@
         <v>1</v>
       </c>
       <c r="F112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H112" t="n">
         <v>1</v>
       </c>
       <c r="I112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J112" t="n">
         <v>0</v>
@@ -4736,7 +4736,7 @@
         <v>1</v>
       </c>
       <c r="F113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -4765,10 +4765,10 @@
         <v>1</v>
       </c>
       <c r="C114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E114" t="n">
         <v>1</v>
@@ -4783,7 +4783,7 @@
         <v>1</v>
       </c>
       <c r="I114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J114" t="n">
         <v>0</v>
@@ -4803,10 +4803,10 @@
         <v>1</v>
       </c>
       <c r="C115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E115" t="n">
         <v>1</v>
@@ -4850,7 +4850,7 @@
         <v>1</v>
       </c>
       <c r="F116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -4865,7 +4865,7 @@
         <v>0</v>
       </c>
       <c r="K116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L116" t="n">
         <v>0</v>
@@ -4888,7 +4888,7 @@
         <v>1</v>
       </c>
       <c r="F117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -4926,7 +4926,7 @@
         <v>1</v>
       </c>
       <c r="F118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -4935,10 +4935,10 @@
         <v>0</v>
       </c>
       <c r="I118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K118" t="n">
         <v>0</v>
@@ -4967,22 +4967,22 @@
         <v>0</v>
       </c>
       <c r="G119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
       </c>
       <c r="I119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120">
@@ -5005,7 +5005,7 @@
         <v>0</v>
       </c>
       <c r="G120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -5017,7 +5017,7 @@
         <v>0</v>
       </c>
       <c r="K120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L120" t="n">
         <v>1</v>
@@ -5043,7 +5043,7 @@
         <v>0</v>
       </c>
       <c r="G121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -5072,13 +5072,13 @@
         <v>0</v>
       </c>
       <c r="D122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E122" t="n">
         <v>1</v>
       </c>
       <c r="F122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G122" t="n">
         <v>0</v>
@@ -5087,7 +5087,7 @@
         <v>0</v>
       </c>
       <c r="I122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J122" t="n">
         <v>0</v>
@@ -5116,7 +5116,7 @@
         <v>1</v>
       </c>
       <c r="F123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G123" t="n">
         <v>0</v>
@@ -5145,7 +5145,7 @@
         <v>0</v>
       </c>
       <c r="C124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D124" t="n">
         <v>1</v>
@@ -5157,19 +5157,19 @@
         <v>1</v>
       </c>
       <c r="G124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
       </c>
       <c r="I124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J124" t="n">
         <v>0</v>
       </c>
       <c r="K124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L124" t="n">
         <v>0</v>
@@ -5180,10 +5180,10 @@
         <v>44837</v>
       </c>
       <c r="B125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D125" t="n">
         <v>1</v>
@@ -5195,13 +5195,13 @@
         <v>1</v>
       </c>
       <c r="G125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J125" t="n">
         <v>0</v>
@@ -5210,7 +5210,7 @@
         <v>1</v>
       </c>
       <c r="L125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126">
@@ -5218,10 +5218,10 @@
         <v>44844</v>
       </c>
       <c r="B126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D126" t="n">
         <v>1</v>
@@ -5230,10 +5230,10 @@
         <v>1</v>
       </c>
       <c r="F126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -5245,7 +5245,7 @@
         <v>0</v>
       </c>
       <c r="K126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L126" t="n">
         <v>0</v>
@@ -5256,10 +5256,10 @@
         <v>44851</v>
       </c>
       <c r="B127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D127" t="n">
         <v>1</v>
@@ -5268,10 +5268,10 @@
         <v>1</v>
       </c>
       <c r="F127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -5294,31 +5294,31 @@
         <v>44858</v>
       </c>
       <c r="B128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E128" t="n">
         <v>1</v>
       </c>
       <c r="F128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
       <c r="J128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K128" t="n">
         <v>0</v>
@@ -5335,7 +5335,7 @@
         <v>0</v>
       </c>
       <c r="C129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D129" t="n">
         <v>1</v>
@@ -5344,22 +5344,22 @@
         <v>1</v>
       </c>
       <c r="F129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J129" t="n">
         <v>0</v>
       </c>
       <c r="K129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L129" t="n">
         <v>1</v>
@@ -5385,7 +5385,7 @@
         <v>0</v>
       </c>
       <c r="G130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -5397,10 +5397,10 @@
         <v>0</v>
       </c>
       <c r="K130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131">
@@ -5423,7 +5423,7 @@
         <v>0</v>
       </c>
       <c r="G131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5435,7 +5435,7 @@
         <v>0</v>
       </c>
       <c r="K131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L131" t="n">
         <v>0</v>
@@ -5461,16 +5461,16 @@
         <v>0</v>
       </c>
       <c r="G132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K132" t="n">
         <v>0</v>
@@ -5487,28 +5487,28 @@
         <v>0</v>
       </c>
       <c r="C133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D133" t="n">
         <v>1</v>
       </c>
       <c r="E133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F133" t="n">
         <v>0</v>
       </c>
       <c r="G133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K133" t="n">
         <v>0</v>
@@ -5522,31 +5522,31 @@
         <v>44900</v>
       </c>
       <c r="B134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D134" t="n">
         <v>1</v>
       </c>
       <c r="E134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F134" t="n">
         <v>0</v>
       </c>
       <c r="G134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H134" t="n">
         <v>1</v>
       </c>
       <c r="I134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K134" t="n">
         <v>0</v>
@@ -5569,13 +5569,13 @@
         <v>1</v>
       </c>
       <c r="E135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F135" t="n">
         <v>0</v>
       </c>
       <c r="G135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H135" t="n">
         <v>1</v>
@@ -5584,7 +5584,7 @@
         <v>0</v>
       </c>
       <c r="J135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K135" t="n">
         <v>0</v>
@@ -5598,7 +5598,7 @@
         <v>44914</v>
       </c>
       <c r="B136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C136" t="n">
         <v>0</v>
@@ -5607,13 +5607,13 @@
         <v>1</v>
       </c>
       <c r="E136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F136" t="n">
         <v>0</v>
       </c>
       <c r="G136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H136" t="n">
         <v>1</v>
@@ -5622,7 +5622,7 @@
         <v>0</v>
       </c>
       <c r="J136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K136" t="n">
         <v>0</v>
@@ -5639,7 +5639,7 @@
         <v>1</v>
       </c>
       <c r="C137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D137" t="n">
         <v>1</v>
@@ -5651,7 +5651,7 @@
         <v>0</v>
       </c>
       <c r="G137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H137" t="n">
         <v>1</v>
@@ -5660,13 +5660,13 @@
         <v>0</v>
       </c>
       <c r="J137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K137" t="n">
         <v>0</v>
       </c>
       <c r="L137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138">
@@ -5674,10 +5674,10 @@
         <v>44925</v>
       </c>
       <c r="B138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D138" t="n">
         <v>1</v>
@@ -5692,13 +5692,13 @@
         <v>0</v>
       </c>
       <c r="H138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
       <c r="J138" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K138" t="n">
         <v>0</v>
@@ -5712,10 +5712,10 @@
         <v>44935</v>
       </c>
       <c r="B139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D139" t="n">
         <v>1</v>
@@ -5730,16 +5730,16 @@
         <v>0</v>
       </c>
       <c r="H139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L139" t="n">
         <v>0</v>
@@ -5750,10 +5750,10 @@
         <v>44939</v>
       </c>
       <c r="B140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D140" t="n">
         <v>1</v>
@@ -5762,7 +5762,7 @@
         <v>1</v>
       </c>
       <c r="F140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G140" t="n">
         <v>0</v>
@@ -5771,10 +5771,10 @@
         <v>0</v>
       </c>
       <c r="I140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K140" t="n">
         <v>1</v>
@@ -5794,7 +5794,7 @@
         <v>1</v>
       </c>
       <c r="D141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E141" t="n">
         <v>1</v>
@@ -5803,7 +5803,7 @@
         <v>1</v>
       </c>
       <c r="G141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5812,7 +5812,7 @@
         <v>1</v>
       </c>
       <c r="J141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K141" t="n">
         <v>1</v>
@@ -5835,7 +5835,7 @@
         <v>1</v>
       </c>
       <c r="E142" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F142" t="n">
         <v>1</v>
@@ -5844,7 +5844,7 @@
         <v>1</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I142" t="n">
         <v>1</v>
@@ -5853,7 +5853,7 @@
         <v>1</v>
       </c>
       <c r="K142" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L142" t="n">
         <v>0</v>
@@ -5870,7 +5870,7 @@
         <v>1</v>
       </c>
       <c r="D143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E143" t="n">
         <v>0</v>
@@ -5882,7 +5882,7 @@
         <v>1</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I143" t="n">
         <v>1</v>
@@ -5911,7 +5911,7 @@
         <v>0</v>
       </c>
       <c r="E144" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F144" t="n">
         <v>1</v>
@@ -5923,10 +5923,10 @@
         <v>1</v>
       </c>
       <c r="I144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J144" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K144" t="n">
         <v>1</v>
@@ -5955,13 +5955,13 @@
         <v>1</v>
       </c>
       <c r="G145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H145" t="n">
         <v>1</v>
       </c>
       <c r="I145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J145" t="n">
         <v>0</v>
@@ -5970,7 +5970,7 @@
         <v>1</v>
       </c>
       <c r="L145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146">
@@ -5981,7 +5981,7 @@
         <v>1</v>
       </c>
       <c r="C146" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D146" t="n">
         <v>1</v>
@@ -5990,16 +5990,16 @@
         <v>1</v>
       </c>
       <c r="F146" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G146" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H146" t="n">
         <v>1</v>
       </c>
       <c r="I146" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J146" t="n">
         <v>0</v>
@@ -6008,7 +6008,7 @@
         <v>1</v>
       </c>
       <c r="L146" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147">
@@ -6016,10 +6016,10 @@
         <v>44991</v>
       </c>
       <c r="B147" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C147" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D147" t="n">
         <v>1</v>
@@ -6028,13 +6028,13 @@
         <v>1</v>
       </c>
       <c r="F147" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G147" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H147" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I147" t="n">
         <v>0</v>
@@ -6054,7 +6054,7 @@
         <v>44998</v>
       </c>
       <c r="B148" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C148" t="n">
         <v>1</v>
@@ -6066,19 +6066,19 @@
         <v>1</v>
       </c>
       <c r="F148" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G148" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H148" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
       <c r="J148" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K148" t="n">
         <v>1</v>
@@ -6092,7 +6092,7 @@
         <v>45005</v>
       </c>
       <c r="B149" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C149" t="n">
         <v>1</v>
@@ -6104,7 +6104,7 @@
         <v>1</v>
       </c>
       <c r="F149" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -6113,16 +6113,16 @@
         <v>1</v>
       </c>
       <c r="I149" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J149" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K149" t="n">
         <v>1</v>
       </c>
       <c r="L149" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150">
@@ -6130,19 +6130,19 @@
         <v>45012</v>
       </c>
       <c r="B150" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C150" t="n">
         <v>1</v>
       </c>
       <c r="D150" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E150" t="n">
         <v>1</v>
       </c>
       <c r="F150" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -6151,16 +6151,16 @@
         <v>1</v>
       </c>
       <c r="I150" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J150" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K150" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L150" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151">
@@ -6168,19 +6168,19 @@
         <v>45019</v>
       </c>
       <c r="B151" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C151" t="n">
         <v>1</v>
       </c>
       <c r="D151" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E151" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F151" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -6189,10 +6189,10 @@
         <v>0</v>
       </c>
       <c r="I151" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J151" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K151" t="n">
         <v>0</v>
@@ -6209,7 +6209,7 @@
         <v>0</v>
       </c>
       <c r="C152" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D152" t="n">
         <v>1</v>
@@ -6218,19 +6218,19 @@
         <v>0</v>
       </c>
       <c r="F152" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I152" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J152" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K152" t="n">
         <v>0</v>
@@ -6253,7 +6253,7 @@
         <v>1</v>
       </c>
       <c r="E153" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F153" t="n">
         <v>0</v>
@@ -6262,13 +6262,13 @@
         <v>1</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I153" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J153" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K153" t="n">
         <v>0</v>
@@ -6297,19 +6297,19 @@
         <v>0</v>
       </c>
       <c r="G154" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
       </c>
       <c r="I154" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J154" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K154" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L154" t="n">
         <v>0</v>
@@ -6323,7 +6323,7 @@
         <v>0</v>
       </c>
       <c r="C155" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D155" t="n">
         <v>1</v>
@@ -6335,7 +6335,7 @@
         <v>0</v>
       </c>
       <c r="G155" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -6344,7 +6344,7 @@
         <v>1</v>
       </c>
       <c r="J155" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K155" t="n">
         <v>1</v>
@@ -6373,7 +6373,7 @@
         <v>0</v>
       </c>
       <c r="G156" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -6396,16 +6396,16 @@
         <v>45061</v>
       </c>
       <c r="B157" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C157" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D157" t="n">
         <v>1</v>
       </c>
       <c r="E157" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F157" t="n">
         <v>0</v>
@@ -6417,7 +6417,7 @@
         <v>0</v>
       </c>
       <c r="I157" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J157" t="n">
         <v>0</v>
@@ -6434,13 +6434,13 @@
         <v>45068</v>
       </c>
       <c r="B158" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C158" t="n">
         <v>0</v>
       </c>
       <c r="D158" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E158" t="n">
         <v>0</v>
@@ -6449,13 +6449,13 @@
         <v>0</v>
       </c>
       <c r="G158" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
       </c>
       <c r="I158" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J158" t="n">
         <v>0</v>
@@ -6464,7 +6464,7 @@
         <v>1</v>
       </c>
       <c r="L158" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159">
@@ -6472,22 +6472,22 @@
         <v>45072</v>
       </c>
       <c r="B159" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C159" t="n">
         <v>0</v>
       </c>
       <c r="D159" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E159" t="n">
         <v>0</v>
       </c>
       <c r="F159" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G159" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -6502,7 +6502,7 @@
         <v>1</v>
       </c>
       <c r="L159" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160">
@@ -6510,28 +6510,28 @@
         <v>45082</v>
       </c>
       <c r="B160" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C160" t="n">
         <v>0</v>
       </c>
       <c r="D160" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E160" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F160" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G160" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
       </c>
       <c r="I160" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J160" t="n">
         <v>0</v>
@@ -6540,7 +6540,7 @@
         <v>1</v>
       </c>
       <c r="L160" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161">
@@ -6548,7 +6548,7 @@
         <v>45089</v>
       </c>
       <c r="B161" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C161" t="n">
         <v>0</v>
@@ -6560,10 +6560,10 @@
         <v>1</v>
       </c>
       <c r="F161" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G161" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6586,7 +6586,7 @@
         <v>45096</v>
       </c>
       <c r="B162" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C162" t="n">
         <v>0</v>
@@ -6624,10 +6624,10 @@
         <v>45103</v>
       </c>
       <c r="B163" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C163" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D163" t="n">
         <v>1</v>
@@ -6642,16 +6642,16 @@
         <v>1</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I163" t="n">
         <v>1</v>
       </c>
       <c r="J163" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K163" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L163" t="n">
         <v>0</v>
@@ -6700,13 +6700,13 @@
         <v>45117</v>
       </c>
       <c r="B165" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C165" t="n">
         <v>1</v>
       </c>
       <c r="D165" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E165" t="n">
         <v>1</v>
@@ -6730,7 +6730,7 @@
         <v>1</v>
       </c>
       <c r="L165" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166">
@@ -6738,37 +6738,37 @@
         <v>45124</v>
       </c>
       <c r="B166" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C166" t="n">
         <v>1</v>
       </c>
       <c r="D166" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E166" t="n">
         <v>1</v>
       </c>
       <c r="F166" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
       </c>
       <c r="H166" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I166" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J166" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K166" t="n">
         <v>1</v>
       </c>
       <c r="L166" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167">
@@ -6776,10 +6776,10 @@
         <v>45131</v>
       </c>
       <c r="B167" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C167" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D167" t="n">
         <v>1</v>
@@ -6788,7 +6788,7 @@
         <v>1</v>
       </c>
       <c r="F167" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -6797,16 +6797,16 @@
         <v>0</v>
       </c>
       <c r="I167" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J167" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K167" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L167" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168">
@@ -6814,10 +6814,10 @@
         <v>45138</v>
       </c>
       <c r="B168" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C168" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D168" t="n">
         <v>1</v>
@@ -6826,7 +6826,7 @@
         <v>1</v>
       </c>
       <c r="F168" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -6835,16 +6835,16 @@
         <v>0</v>
       </c>
       <c r="I168" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J168" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K168" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L168" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169">
@@ -6852,7 +6852,7 @@
         <v>45145</v>
       </c>
       <c r="B169" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C169" t="n">
         <v>0</v>
@@ -6870,19 +6870,19 @@
         <v>1</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I169" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J169" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K169" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L169" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170">
@@ -6890,7 +6890,7 @@
         <v>45152</v>
       </c>
       <c r="B170" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C170" t="n">
         <v>0</v>
@@ -6899,7 +6899,7 @@
         <v>1</v>
       </c>
       <c r="E170" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F170" t="n">
         <v>0</v>
@@ -6908,10 +6908,10 @@
         <v>1</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I170" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J170" t="n">
         <v>0</v>
@@ -6928,28 +6928,28 @@
         <v>45159</v>
       </c>
       <c r="B171" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C171" t="n">
         <v>0</v>
       </c>
       <c r="D171" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E171" t="n">
         <v>1</v>
       </c>
       <c r="F171" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I171" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J171" t="n">
         <v>0</v>
@@ -7022,7 +7022,7 @@
         <v>1</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I173" t="n">
         <v>1</v>
@@ -7034,7 +7034,7 @@
         <v>1</v>
       </c>
       <c r="L173" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174">
@@ -7066,7 +7066,7 @@
         <v>1</v>
       </c>
       <c r="J174" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K174" t="n">
         <v>1</v>
@@ -7104,7 +7104,7 @@
         <v>1</v>
       </c>
       <c r="J175" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K175" t="n">
         <v>1</v>
@@ -7142,13 +7142,13 @@
         <v>1</v>
       </c>
       <c r="J176" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K176" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L176" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177">
@@ -7156,7 +7156,7 @@
         <v>45201</v>
       </c>
       <c r="B177" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C177" t="n">
         <v>1</v>
@@ -7180,13 +7180,13 @@
         <v>1</v>
       </c>
       <c r="J177" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K177" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L177" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178">
@@ -7200,13 +7200,13 @@
         <v>1</v>
       </c>
       <c r="D178" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E178" t="n">
         <v>1</v>
       </c>
       <c r="F178" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -7218,13 +7218,13 @@
         <v>1</v>
       </c>
       <c r="J178" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K178" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L178" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179">
@@ -7235,7 +7235,7 @@
         <v>1</v>
       </c>
       <c r="C179" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D179" t="n">
         <v>1</v>
@@ -7262,7 +7262,7 @@
         <v>1</v>
       </c>
       <c r="L179" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180">
@@ -7297,7 +7297,7 @@
         <v>0</v>
       </c>
       <c r="K180" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L180" t="n">
         <v>0</v>
@@ -7364,13 +7364,13 @@
         <v>1</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I182" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J182" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K182" t="n">
         <v>0</v>
@@ -7405,7 +7405,7 @@
         <v>0</v>
       </c>
       <c r="I183" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J183" t="n">
         <v>1</v>
@@ -7443,7 +7443,7 @@
         <v>0</v>
       </c>
       <c r="I184" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J184" t="n">
         <v>1</v>
@@ -7463,13 +7463,13 @@
         <v>0</v>
       </c>
       <c r="C185" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D185" t="n">
         <v>1</v>
       </c>
       <c r="E185" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F185" t="n">
         <v>1</v>
@@ -7481,13 +7481,13 @@
         <v>0</v>
       </c>
       <c r="I185" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J185" t="n">
         <v>1</v>
       </c>
       <c r="K185" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L185" t="n">
         <v>1</v>
@@ -7507,7 +7507,7 @@
         <v>1</v>
       </c>
       <c r="E186" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F186" t="n">
         <v>1</v>
@@ -7519,13 +7519,13 @@
         <v>0</v>
       </c>
       <c r="I186" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J186" t="n">
         <v>1</v>
       </c>
       <c r="K186" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L186" t="n">
         <v>1</v>
@@ -7557,13 +7557,13 @@
         <v>0</v>
       </c>
       <c r="I187" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J187" t="n">
         <v>1</v>
       </c>
       <c r="K187" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L187" t="n">
         <v>1</v>
@@ -7592,10 +7592,10 @@
         <v>1</v>
       </c>
       <c r="H188" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I188" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J188" t="n">
         <v>1</v>
@@ -7630,16 +7630,16 @@
         <v>0</v>
       </c>
       <c r="H189" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I189" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J189" t="n">
         <v>1</v>
       </c>
       <c r="K189" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L189" t="n">
         <v>1</v>
@@ -7659,7 +7659,7 @@
         <v>1</v>
       </c>
       <c r="E190" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F190" t="n">
         <v>0</v>
@@ -7668,16 +7668,16 @@
         <v>0</v>
       </c>
       <c r="H190" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I190" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J190" t="n">
         <v>1</v>
       </c>
       <c r="K190" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L190" t="n">
         <v>0</v>
@@ -7688,7 +7688,7 @@
         <v>45299</v>
       </c>
       <c r="B191" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C191" t="n">
         <v>0</v>
@@ -7697,7 +7697,7 @@
         <v>1</v>
       </c>
       <c r="E191" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F191" t="n">
         <v>0</v>
@@ -7706,16 +7706,16 @@
         <v>0</v>
       </c>
       <c r="H191" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I191" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J191" t="n">
         <v>1</v>
       </c>
       <c r="K191" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L191" t="n">
         <v>0</v>
@@ -7726,25 +7726,25 @@
         <v>45303</v>
       </c>
       <c r="B192" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C192" t="n">
         <v>0</v>
       </c>
       <c r="D192" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E192" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F192" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G192" t="n">
         <v>0</v>
       </c>
       <c r="H192" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I192" t="n">
         <v>0</v>
@@ -7764,16 +7764,16 @@
         <v>45313</v>
       </c>
       <c r="B193" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C193" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D193" t="n">
         <v>0</v>
       </c>
       <c r="E193" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F193" t="n">
         <v>1</v>
@@ -7802,7 +7802,7 @@
         <v>45320</v>
       </c>
       <c r="B194" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C194" t="n">
         <v>0</v>
@@ -7811,7 +7811,7 @@
         <v>0</v>
       </c>
       <c r="E194" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F194" t="n">
         <v>1</v>
@@ -7820,7 +7820,7 @@
         <v>0</v>
       </c>
       <c r="H194" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I194" t="n">
         <v>0</v>
@@ -7849,7 +7849,7 @@
         <v>1</v>
       </c>
       <c r="E195" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F195" t="n">
         <v>1</v>
@@ -7858,10 +7858,10 @@
         <v>0</v>
       </c>
       <c r="H195" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I195" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J195" t="n">
         <v>1</v>
@@ -7870,7 +7870,7 @@
         <v>1</v>
       </c>
       <c r="L195" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="196">
@@ -7878,7 +7878,7 @@
         <v>45334</v>
       </c>
       <c r="B196" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C196" t="n">
         <v>0</v>
@@ -7890,25 +7890,25 @@
         <v>1</v>
       </c>
       <c r="F196" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G196" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
       </c>
       <c r="I196" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J196" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K196" t="n">
         <v>1</v>
       </c>
       <c r="L196" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="197">
@@ -7916,7 +7916,7 @@
         <v>45338</v>
       </c>
       <c r="B197" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C197" t="n">
         <v>0</v>
@@ -7925,7 +7925,7 @@
         <v>1</v>
       </c>
       <c r="E197" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F197" t="n">
         <v>1</v>
@@ -7937,16 +7937,16 @@
         <v>0</v>
       </c>
       <c r="I197" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J197" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K197" t="n">
         <v>1</v>
       </c>
       <c r="L197" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198">
@@ -7954,16 +7954,16 @@
         <v>45348</v>
       </c>
       <c r="B198" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C198" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D198" t="n">
         <v>1</v>
       </c>
       <c r="E198" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F198" t="n">
         <v>0</v>
@@ -7978,7 +7978,7 @@
         <v>0</v>
       </c>
       <c r="J198" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K198" t="n">
         <v>1</v>
@@ -7992,10 +7992,10 @@
         <v>45355</v>
       </c>
       <c r="B199" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C199" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D199" t="n">
         <v>1</v>
@@ -8013,16 +8013,16 @@
         <v>1</v>
       </c>
       <c r="I199" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J199" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K199" t="n">
         <v>1</v>
       </c>
       <c r="L199" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200">
@@ -8030,10 +8030,10 @@
         <v>45362</v>
       </c>
       <c r="B200" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C200" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D200" t="n">
         <v>1</v>
@@ -8051,13 +8051,13 @@
         <v>1</v>
       </c>
       <c r="I200" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J200" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K200" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L200" t="n">
         <v>0</v>
@@ -8068,7 +8068,7 @@
         <v>45369</v>
       </c>
       <c r="B201" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C201" t="n">
         <v>1</v>
@@ -8089,13 +8089,13 @@
         <v>1</v>
       </c>
       <c r="I201" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J201" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K201" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L201" t="n">
         <v>0</v>
@@ -8106,10 +8106,10 @@
         <v>45376</v>
       </c>
       <c r="B202" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C202" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D202" t="n">
         <v>1</v>
@@ -8118,7 +8118,7 @@
         <v>1</v>
       </c>
       <c r="F202" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -8130,10 +8130,10 @@
         <v>0</v>
       </c>
       <c r="J202" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K202" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L202" t="n">
         <v>0</v>
@@ -8156,7 +8156,7 @@
         <v>1</v>
       </c>
       <c r="F203" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -8171,10 +8171,10 @@
         <v>1</v>
       </c>
       <c r="K203" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L203" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204">
@@ -8194,13 +8194,13 @@
         <v>1</v>
       </c>
       <c r="F204" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G204" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H204" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I204" t="n">
         <v>0</v>
@@ -8226,7 +8226,7 @@
         <v>0</v>
       </c>
       <c r="D205" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E205" t="n">
         <v>1</v>
@@ -8235,7 +8235,7 @@
         <v>0</v>
       </c>
       <c r="G205" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -8247,7 +8247,7 @@
         <v>0</v>
       </c>
       <c r="K205" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L205" t="n">
         <v>1</v>
@@ -8258,7 +8258,7 @@
         <v>45404</v>
       </c>
       <c r="B206" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C206" t="n">
         <v>0</v>
@@ -8270,22 +8270,22 @@
         <v>1</v>
       </c>
       <c r="F206" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G206" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
       </c>
       <c r="I206" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J206" t="n">
         <v>0</v>
       </c>
       <c r="K206" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L206" t="n">
         <v>1</v>
@@ -8296,7 +8296,7 @@
         <v>45411</v>
       </c>
       <c r="B207" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C207" t="n">
         <v>0</v>
@@ -8334,7 +8334,7 @@
         <v>45418</v>
       </c>
       <c r="B208" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C208" t="n">
         <v>0</v>
@@ -8361,7 +8361,7 @@
         <v>0</v>
       </c>
       <c r="K208" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L208" t="n">
         <v>1</v>
@@ -8378,10 +8378,10 @@
         <v>0</v>
       </c>
       <c r="D209" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E209" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F209" t="n">
         <v>1</v>
@@ -8390,7 +8390,7 @@
         <v>1</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I209" t="n">
         <v>1</v>
@@ -8410,7 +8410,7 @@
         <v>45432</v>
       </c>
       <c r="B210" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C210" t="n">
         <v>1</v>
@@ -8428,16 +8428,16 @@
         <v>1</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I210" t="n">
         <v>1</v>
       </c>
       <c r="J210" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K210" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L210" t="n">
         <v>0</v>
@@ -8448,7 +8448,7 @@
         <v>45436</v>
       </c>
       <c r="B211" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C211" t="n">
         <v>1</v>
@@ -8457,7 +8457,7 @@
         <v>1</v>
       </c>
       <c r="E211" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F211" t="n">
         <v>1</v>
@@ -8466,7 +8466,7 @@
         <v>1</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I211" t="n">
         <v>1</v>
@@ -8486,7 +8486,7 @@
         <v>45446</v>
       </c>
       <c r="B212" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C212" t="n">
         <v>1</v>
@@ -8495,16 +8495,16 @@
         <v>1</v>
       </c>
       <c r="E212" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F212" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G212" t="n">
         <v>1</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I212" t="n">
         <v>1</v>
@@ -8516,7 +8516,7 @@
         <v>0</v>
       </c>
       <c r="L212" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
